--- a/Code/Results/Cases/Case_8_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.30881017735175</v>
+        <v>24.96679637549676</v>
       </c>
       <c r="C2">
-        <v>24.44657044769344</v>
+        <v>25.10082480870319</v>
       </c>
       <c r="D2">
-        <v>4.326929484549575</v>
+        <v>3.984705185079714</v>
       </c>
       <c r="E2">
-        <v>29.37430165026637</v>
+        <v>29.32764497136417</v>
       </c>
       <c r="F2">
-        <v>36.51963040749342</v>
+        <v>33.65831066234638</v>
       </c>
       <c r="G2">
-        <v>2.067332283323581</v>
+        <v>2.45247009319439</v>
       </c>
       <c r="H2">
-        <v>3.259286520145299</v>
+        <v>3.230464128102195</v>
       </c>
       <c r="I2">
-        <v>3.519736771789662</v>
+        <v>3.474390550601606</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.65372256868254</v>
+        <v>19.3590955916602</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.50997254235084</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.5897357756811</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.09416360258527</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.7856271670784</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.49727922600388</v>
+        <v>23.32276953886975</v>
       </c>
       <c r="C3">
-        <v>22.73628811531531</v>
+        <v>23.36809959970078</v>
       </c>
       <c r="D3">
-        <v>4.297669944799952</v>
+        <v>3.94248704703244</v>
       </c>
       <c r="E3">
-        <v>27.35652119205275</v>
+        <v>27.38935786137372</v>
       </c>
       <c r="F3">
-        <v>34.58144170664402</v>
+        <v>31.95346775895167</v>
       </c>
       <c r="G3">
-        <v>2.075524429558887</v>
+        <v>1.511470609956865</v>
       </c>
       <c r="H3">
-        <v>2.922436168313549</v>
+        <v>2.942801474037768</v>
       </c>
       <c r="I3">
-        <v>3.229352200551403</v>
+        <v>3.263090737091015</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.91773087502953</v>
+        <v>18.80858358081953</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.31655071399003</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.89560484094543</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.26064927044772</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>11.93451242089771</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.31783015874412</v>
+        <v>22.24986584114691</v>
       </c>
       <c r="C4">
-        <v>21.63177999254219</v>
+        <v>22.24551751895878</v>
       </c>
       <c r="D4">
-        <v>4.278091678454126</v>
+        <v>3.914077748998775</v>
       </c>
       <c r="E4">
-        <v>26.05204211044677</v>
+        <v>26.13394143080746</v>
       </c>
       <c r="F4">
-        <v>33.35091717906219</v>
+        <v>30.8634012875269</v>
       </c>
       <c r="G4">
-        <v>2.080676705510991</v>
+        <v>1.159067853823691</v>
       </c>
       <c r="H4">
-        <v>2.709760792071959</v>
+        <v>2.760612988570456</v>
       </c>
       <c r="I4">
-        <v>3.047294341309626</v>
+        <v>3.130404106771498</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.45826713610066</v>
+        <v>18.46147122055607</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.1880335726724</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.47212851189381</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.36291290846458</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.02597522389856</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.81086188475183</v>
+        <v>21.78797290997994</v>
       </c>
       <c r="C5">
-        <v>21.17242757878329</v>
+        <v>21.77754927193521</v>
       </c>
       <c r="D5">
-        <v>4.267510569920034</v>
+        <v>3.900275311673286</v>
       </c>
       <c r="E5">
-        <v>25.50326855890501</v>
+        <v>25.60544319470264</v>
       </c>
       <c r="F5">
-        <v>32.82097769494276</v>
+        <v>30.39107838558959</v>
       </c>
       <c r="G5">
-        <v>2.082822818349045</v>
+        <v>1.408012828327391</v>
       </c>
       <c r="H5">
-        <v>2.621233636796961</v>
+        <v>2.684686902748259</v>
       </c>
       <c r="I5">
-        <v>2.972167538298299</v>
+        <v>3.075942692688315</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20.25502221162056</v>
+        <v>18.30487063056502</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.12321001783522</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.29108063310017</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.40256900619285</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.06204771889783</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.71429028737796</v>
+        <v>21.69977366310515</v>
       </c>
       <c r="C6">
-        <v>21.10091023445247</v>
+        <v>21.70426897550747</v>
       </c>
       <c r="D6">
-        <v>4.263050819487534</v>
+        <v>3.895998461074752</v>
       </c>
       <c r="E6">
-        <v>25.41048692150866</v>
+        <v>25.51619596950567</v>
       </c>
       <c r="F6">
-        <v>32.70953308363824</v>
+        <v>30.29058562154447</v>
       </c>
       <c r="G6">
-        <v>2.0831985463671</v>
+        <v>1.451608348971713</v>
       </c>
       <c r="H6">
-        <v>2.606033686938486</v>
+        <v>2.671689513268045</v>
       </c>
       <c r="I6">
-        <v>2.959886172899702</v>
+        <v>3.06752884279394</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.20374956314518</v>
+        <v>18.262913865502</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.1001200245434</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.24913060871484</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.40666112028212</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.06654688945985</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.28078768123304</v>
+        <v>22.17287946567107</v>
       </c>
       <c r="C7">
-        <v>21.64051840375663</v>
+        <v>22.1770773098756</v>
       </c>
       <c r="D7">
-        <v>4.270650510203879</v>
+        <v>3.898233535113123</v>
       </c>
       <c r="E7">
-        <v>26.04295059526417</v>
+        <v>26.12209927464635</v>
       </c>
       <c r="F7">
-        <v>33.28246336472181</v>
+        <v>30.67895010972159</v>
       </c>
       <c r="G7">
-        <v>2.080752518348226</v>
+        <v>1.287531392776561</v>
       </c>
       <c r="H7">
-        <v>2.707472924437942</v>
+        <v>2.756646924876899</v>
       </c>
       <c r="I7">
-        <v>3.046581386113474</v>
+        <v>3.127762541471203</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.4084399135849</v>
+        <v>18.35268081501537</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.10549719958258</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.38827492963827</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.35667280897187</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.016940136745</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.66103106268531</v>
+        <v>24.24729265050192</v>
       </c>
       <c r="C8">
-        <v>23.88603356085095</v>
+        <v>24.29825349956084</v>
       </c>
       <c r="D8">
-        <v>4.30760090040411</v>
+        <v>3.931449934746196</v>
       </c>
       <c r="E8">
-        <v>28.6897745474404</v>
+        <v>28.66006702484214</v>
       </c>
       <c r="F8">
-        <v>35.7836678908687</v>
+        <v>32.63184912724138</v>
       </c>
       <c r="G8">
-        <v>2.07019282398089</v>
+        <v>2.391736101125036</v>
       </c>
       <c r="H8">
-        <v>3.142901253809729</v>
+        <v>3.124496879680222</v>
       </c>
       <c r="I8">
-        <v>3.420027614544337</v>
+        <v>3.392517373015886</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>21.34158677078424</v>
+        <v>18.91271132484142</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.25213075190135</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.14848713483383</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.1427906192033</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>11.81605338136617</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.85120868910598</v>
+        <v>28.0173383767467</v>
       </c>
       <c r="C9">
-        <v>27.84226119051394</v>
+        <v>28.25420769734279</v>
       </c>
       <c r="D9">
-        <v>4.380332410258689</v>
+        <v>4.022326426310205</v>
       </c>
       <c r="E9">
-        <v>33.37157325088275</v>
+        <v>33.13775534448369</v>
       </c>
       <c r="F9">
-        <v>40.45610258766233</v>
+        <v>36.64648674736566</v>
       </c>
       <c r="G9">
-        <v>2.05029958477614</v>
+        <v>4.493672897395384</v>
       </c>
       <c r="H9">
-        <v>3.955039105885417</v>
+        <v>3.812434789992133</v>
       </c>
       <c r="I9">
-        <v>4.126063467345379</v>
+        <v>3.900485227632984</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.18676720272111</v>
+        <v>20.24345175254123</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.69606897432083</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.877110313908</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.73445129293458</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.44722170759841</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.4957598954543</v>
+        <v>30.19366987274924</v>
       </c>
       <c r="C10">
-        <v>30.34620488964418</v>
+        <v>30.38664230959479</v>
       </c>
       <c r="D10">
-        <v>4.385963028618376</v>
+        <v>4.008881660270046</v>
       </c>
       <c r="E10">
-        <v>35.62375908133738</v>
+        <v>35.2195666999527</v>
       </c>
       <c r="F10">
-        <v>43.35244959194194</v>
+        <v>38.52521395045871</v>
       </c>
       <c r="G10">
-        <v>2.036642883061901</v>
+        <v>6.587590708623599</v>
       </c>
       <c r="H10">
-        <v>4.483949918094657</v>
+        <v>4.242003904164355</v>
       </c>
       <c r="I10">
-        <v>4.613728762550811</v>
+        <v>4.232068609204754</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.29690226339671</v>
+        <v>20.68583627609541</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.62901340030115</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.73403206930039</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.40601272821748</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.14984489963623</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.64744551815838</v>
+        <v>29.9783064984755</v>
       </c>
       <c r="C11">
-        <v>30.0819830096453</v>
+        <v>29.34483758223911</v>
       </c>
       <c r="D11">
-        <v>4.092054039342853</v>
+        <v>3.86840107741785</v>
       </c>
       <c r="E11">
-        <v>29.06861988883318</v>
+        <v>28.58512496498802</v>
       </c>
       <c r="F11">
-        <v>41.98386109045976</v>
+        <v>36.06697458563972</v>
       </c>
       <c r="G11">
-        <v>2.034694700253563</v>
+        <v>9.363221682355542</v>
       </c>
       <c r="H11">
-        <v>4.812242046589613</v>
+        <v>4.567522206051213</v>
       </c>
       <c r="I11">
-        <v>4.684855791906759</v>
+        <v>4.252744994548934</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.17219899839547</v>
+        <v>19.02012428522083</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.27946409129961</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.62350728388136</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.07801608925246</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.01529888815461</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.27442230759319</v>
+        <v>29.50559788637434</v>
       </c>
       <c r="C12">
-        <v>29.33548267822175</v>
+        <v>28.22632487432817</v>
       </c>
       <c r="D12">
-        <v>3.90375394967483</v>
+        <v>3.882082303654857</v>
       </c>
       <c r="E12">
-        <v>23.139463911554</v>
+        <v>22.61118302939156</v>
       </c>
       <c r="F12">
-        <v>40.28536787731265</v>
+        <v>33.99997905361998</v>
       </c>
       <c r="G12">
-        <v>2.035471445021731</v>
+        <v>10.87579268754858</v>
       </c>
       <c r="H12">
-        <v>5.549389860167691</v>
+        <v>5.346625359786948</v>
       </c>
       <c r="I12">
-        <v>4.654865573136939</v>
+        <v>4.219545201628309</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.04192601345126</v>
+        <v>17.77831183192801</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.3550393507025</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.6990946098965</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>10.92302000496095</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.03815093800883</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.43083801247486</v>
+        <v>28.8425108122966</v>
       </c>
       <c r="C13">
-        <v>28.16856197060759</v>
+        <v>27.10573779054346</v>
       </c>
       <c r="D13">
-        <v>3.78114232678518</v>
+        <v>3.942474883876246</v>
       </c>
       <c r="E13">
-        <v>17.23254159383503</v>
+        <v>16.6784277793018</v>
       </c>
       <c r="F13">
-        <v>38.10517266523079</v>
+        <v>32.22336620770612</v>
       </c>
       <c r="G13">
-        <v>2.038432425780173</v>
+        <v>10.36337983982743</v>
       </c>
       <c r="H13">
-        <v>6.498220152700289</v>
+        <v>6.349178643402317</v>
       </c>
       <c r="I13">
-        <v>4.54580551717319</v>
+        <v>4.149275747935366</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.75493450319859</v>
+        <v>16.83637621186414</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.71986191974662</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.90718967869391</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>10.88091936634671</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.12599174412959</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.61111675556394</v>
+        <v>28.27368985023674</v>
       </c>
       <c r="C14">
-        <v>27.15219730085926</v>
+        <v>26.30220883479618</v>
       </c>
       <c r="D14">
-        <v>3.734621526551511</v>
+        <v>3.986467493907147</v>
       </c>
       <c r="E14">
-        <v>13.18534356282073</v>
+        <v>12.60951785021129</v>
       </c>
       <c r="F14">
-        <v>36.32133212385064</v>
+        <v>31.0641610379157</v>
       </c>
       <c r="G14">
-        <v>2.041443781410877</v>
+        <v>9.089247384303256</v>
       </c>
       <c r="H14">
-        <v>7.253950195651522</v>
+        <v>7.139973581222744</v>
       </c>
       <c r="I14">
-        <v>4.43592262130467</v>
+        <v>4.084192949094237</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.76453734469715</v>
+        <v>16.28520198433895</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.38241014249554</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.39222282132595</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>10.90611812460621</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.20402956149987</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.29777603502088</v>
+        <v>28.07653023393842</v>
       </c>
       <c r="C15">
-        <v>26.81360904225323</v>
+        <v>26.09373654129657</v>
       </c>
       <c r="D15">
-        <v>3.729915948880019</v>
+        <v>3.989498651690404</v>
       </c>
       <c r="E15">
-        <v>12.20461035817879</v>
+        <v>11.63377791441275</v>
       </c>
       <c r="F15">
-        <v>35.76037616498529</v>
+        <v>30.80391644510887</v>
       </c>
       <c r="G15">
-        <v>2.042703834468158</v>
+        <v>8.394257835705881</v>
       </c>
       <c r="H15">
-        <v>7.426008928372026</v>
+        <v>7.322209564349544</v>
       </c>
       <c r="I15">
-        <v>4.391205444033674</v>
+        <v>4.059557719388082</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.47474990407952</v>
+        <v>16.18697758960178</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.33851569017999</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.27483680899047</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>10.92992280584478</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.22662446652909</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.3099075622938</v>
+        <v>27.55041904873368</v>
       </c>
       <c r="C16">
-        <v>25.9395082970191</v>
+        <v>25.87800876202221</v>
       </c>
       <c r="D16">
-        <v>3.751787425268702</v>
+        <v>3.911652232564164</v>
       </c>
       <c r="E16">
-        <v>11.93834850988695</v>
+        <v>11.5055998075442</v>
       </c>
       <c r="F16">
-        <v>34.81252926065037</v>
+        <v>31.08506695194885</v>
       </c>
       <c r="G16">
-        <v>2.047844622226896</v>
+        <v>5.476547475560345</v>
       </c>
       <c r="H16">
-        <v>7.121018607580987</v>
+        <v>7.04264770154412</v>
       </c>
       <c r="I16">
-        <v>4.209779379675531</v>
+        <v>3.959063717561678</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.18873803755718</v>
+        <v>16.59138422773828</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.74760236825185</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.40492972272854</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.07148040079499</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.25894542343691</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.99215183907315</v>
+        <v>27.40258443037396</v>
       </c>
       <c r="C17">
-        <v>25.82397663784192</v>
+        <v>26.06990589376618</v>
       </c>
       <c r="D17">
-        <v>3.786733156660441</v>
+        <v>3.861814233391479</v>
       </c>
       <c r="E17">
-        <v>13.93325415865369</v>
+        <v>13.59976733609258</v>
       </c>
       <c r="F17">
-        <v>35.06822831325945</v>
+        <v>31.79962326541054</v>
       </c>
       <c r="G17">
-        <v>2.050242652961452</v>
+        <v>4.573204134698957</v>
       </c>
       <c r="H17">
-        <v>6.42857324699516</v>
+        <v>6.355182809324663</v>
       </c>
       <c r="I17">
-        <v>4.127298639659097</v>
+        <v>3.912448654205781</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.50730242665921</v>
+        <v>17.13049779963799</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.20641739046003</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.7221789348334</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.16465636284591</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.27032814469108</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.25458897983451</v>
+        <v>27.66774760145125</v>
       </c>
       <c r="C18">
-        <v>26.35875192658844</v>
+        <v>26.76396731839313</v>
       </c>
       <c r="D18">
-        <v>3.870414145767312</v>
+        <v>3.844849937438903</v>
       </c>
       <c r="E18">
-        <v>18.43947459873388</v>
+        <v>18.16190143004221</v>
       </c>
       <c r="F18">
-        <v>36.4369825531164</v>
+        <v>33.21898396266775</v>
       </c>
       <c r="G18">
-        <v>2.050325092258055</v>
+        <v>4.420935884001217</v>
       </c>
       <c r="H18">
-        <v>5.417841818945805</v>
+        <v>5.3307584222035</v>
       </c>
       <c r="I18">
-        <v>4.125472395447054</v>
+        <v>3.914037539308349</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.41631006591121</v>
+        <v>17.99557749236758</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.86667361182345</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.35335398969339</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.24960833567251</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.26599206902566</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.92184231587947</v>
+        <v>28.23539493193487</v>
       </c>
       <c r="C19">
-        <v>27.40156097569033</v>
+        <v>27.88364213259192</v>
       </c>
       <c r="D19">
-        <v>4.024882052093488</v>
+        <v>3.885274922991523</v>
       </c>
       <c r="E19">
-        <v>24.72231239828078</v>
+        <v>24.45452380004292</v>
       </c>
       <c r="F19">
-        <v>38.48431199940491</v>
+        <v>35.08190086659594</v>
       </c>
       <c r="G19">
-        <v>2.048318632833364</v>
+        <v>4.617957549109991</v>
       </c>
       <c r="H19">
-        <v>4.498201086007643</v>
+        <v>4.375716074677744</v>
       </c>
       <c r="I19">
-        <v>4.200455426204549</v>
+        <v>3.968704548898796</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.65435999422938</v>
+        <v>19.03916215271778</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.62943651200623</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.16994728071006</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.34706739742176</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.26538328594059</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.74255245826041</v>
+        <v>29.68762204558202</v>
       </c>
       <c r="C20">
-        <v>29.73075106475877</v>
+        <v>30.07881973113895</v>
       </c>
       <c r="D20">
-        <v>4.361666375482099</v>
+        <v>4.027841268197529</v>
       </c>
       <c r="E20">
-        <v>34.99806039247481</v>
+        <v>34.65254748760569</v>
       </c>
       <c r="F20">
-        <v>42.43635038519743</v>
+        <v>38.23654577744682</v>
       </c>
       <c r="G20">
-        <v>2.040359029341802</v>
+        <v>5.629825781120564</v>
       </c>
       <c r="H20">
-        <v>4.340446581571718</v>
+        <v>4.132674961031812</v>
       </c>
       <c r="I20">
-        <v>4.485651476520624</v>
+        <v>4.161056663664475</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.87200661330192</v>
+        <v>20.64899819727937</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.70318373871703</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.57242975440347</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.47181791118837</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.23044756428267</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.87058942170144</v>
+        <v>30.82450086507953</v>
       </c>
       <c r="C21">
-        <v>31.81909946090327</v>
+        <v>30.81097988686004</v>
       </c>
       <c r="D21">
-        <v>4.425382348965135</v>
+        <v>3.916379271972039</v>
       </c>
       <c r="E21">
-        <v>38.0205510031051</v>
+        <v>37.47673447030757</v>
       </c>
       <c r="F21">
-        <v>45.09779357793697</v>
+        <v>38.27563759447479</v>
       </c>
       <c r="G21">
-        <v>2.029166382861428</v>
+        <v>11.02445042236822</v>
       </c>
       <c r="H21">
-        <v>4.811495194442017</v>
+        <v>4.485812250783685</v>
       </c>
       <c r="I21">
-        <v>4.884570730464667</v>
+        <v>4.375187033811103</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.02239352203319</v>
+        <v>20.2067497856565</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>16.10227178410054</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.60692934202764</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.2588752477187</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>10.97564762702087</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.17821702237296</v>
+        <v>31.47237867445107</v>
       </c>
       <c r="C22">
-        <v>33.04694361131282</v>
+        <v>31.11260837838709</v>
       </c>
       <c r="D22">
-        <v>4.45622390559243</v>
+        <v>3.860638290406278</v>
       </c>
       <c r="E22">
-        <v>39.48873976164094</v>
+        <v>38.81386219830537</v>
       </c>
       <c r="F22">
-        <v>46.70330302602012</v>
+        <v>38.10559477101862</v>
       </c>
       <c r="G22">
-        <v>2.022091026850071</v>
+        <v>15.74301197830881</v>
       </c>
       <c r="H22">
-        <v>5.094662088524088</v>
+        <v>4.692973984828627</v>
       </c>
       <c r="I22">
-        <v>5.135552332496443</v>
+        <v>4.505015379385849</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.7227365578214</v>
+        <v>19.8218475643729</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.65056510158497</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.5506989216354</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.11548350498513</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>10.83232916167668</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.51125012264666</v>
+        <v>31.23673838304896</v>
       </c>
       <c r="C23">
-        <v>32.38322172223732</v>
+        <v>31.08753486796737</v>
       </c>
       <c r="D23">
-        <v>4.448148120399636</v>
+        <v>3.903359783003409</v>
       </c>
       <c r="E23">
-        <v>38.71170237755053</v>
+        <v>38.11296026947598</v>
       </c>
       <c r="F23">
-        <v>45.90513102640874</v>
+        <v>38.49324893708565</v>
       </c>
       <c r="G23">
-        <v>2.02581459455931</v>
+        <v>12.50058246395418</v>
       </c>
       <c r="H23">
-        <v>4.944936735020878</v>
+        <v>4.587575099964218</v>
       </c>
       <c r="I23">
-        <v>5.001780679614076</v>
+        <v>4.440670560067598</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.39606387126828</v>
+        <v>20.20952386057714</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.0183841329533</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.72636875017595</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.19965473774134</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>10.90900420408798</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.83915903127984</v>
+        <v>29.77636833635475</v>
       </c>
       <c r="C24">
-        <v>29.80541407558815</v>
+        <v>30.16978946543504</v>
       </c>
       <c r="D24">
-        <v>4.402314163803623</v>
+        <v>4.051290578563648</v>
       </c>
       <c r="E24">
-        <v>35.66524664162925</v>
+        <v>35.31776611792204</v>
       </c>
       <c r="F24">
-        <v>42.7219607989935</v>
+        <v>38.51259434577343</v>
       </c>
       <c r="G24">
-        <v>2.040066030029825</v>
+        <v>5.645355814291976</v>
       </c>
       <c r="H24">
-        <v>4.370924809316238</v>
+        <v>4.161158272821923</v>
       </c>
       <c r="I24">
-        <v>4.492800974399789</v>
+        <v>4.1634619604758</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.07178442661359</v>
+        <v>20.83118193924464</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.83910865913618</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.71107651749571</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.50501181482228</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.24366709793843</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.72714538611103</v>
+        <v>27.05940381583367</v>
       </c>
       <c r="C25">
-        <v>26.83808718432129</v>
+        <v>27.34519367800563</v>
       </c>
       <c r="D25">
-        <v>4.349089087933506</v>
+        <v>4.004663603123421</v>
       </c>
       <c r="E25">
-        <v>32.15543804353808</v>
+        <v>31.98318245782816</v>
       </c>
       <c r="F25">
-        <v>39.133217975741</v>
+        <v>35.65949932266952</v>
       </c>
       <c r="G25">
-        <v>2.055676171630894</v>
+        <v>3.802896034041697</v>
       </c>
       <c r="H25">
-        <v>3.737712565768908</v>
+        <v>3.632129977547551</v>
       </c>
       <c r="I25">
-        <v>3.937399895449273</v>
+        <v>3.7720744764485</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.61748571011372</v>
+        <v>19.90494727567107</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.59387507541901</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.42273605405726</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.83342813827507</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.54765311216815</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
